--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>App</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H2">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="N2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="O2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="P2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="Q2">
-        <v>439.4071642942799</v>
+        <v>15.95237209952267</v>
       </c>
       <c r="R2">
-        <v>439.4071642942799</v>
+        <v>143.571348895704</v>
       </c>
       <c r="S2">
-        <v>0.2239903741583304</v>
+        <v>0.0070452484923003</v>
       </c>
       <c r="T2">
-        <v>0.2239903741583304</v>
+        <v>0.0070452484923003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H3">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="N3">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="O3">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="P3">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="Q3">
-        <v>745.3895928235299</v>
+        <v>26.597995940592</v>
       </c>
       <c r="R3">
-        <v>745.3895928235299</v>
+        <v>239.381963465328</v>
       </c>
       <c r="S3">
-        <v>0.3799667082315742</v>
+        <v>0.0117468104197665</v>
       </c>
       <c r="T3">
-        <v>0.3799667082315742</v>
+        <v>0.0117468104197665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H4">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I4">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J4">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="N4">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="O4">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="P4">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="Q4">
-        <v>326.429759616878</v>
+        <v>13.70346885730667</v>
       </c>
       <c r="R4">
-        <v>326.429759616878</v>
+        <v>123.33121971576</v>
       </c>
       <c r="S4">
-        <v>0.1663994807877787</v>
+        <v>0.006052036819597053</v>
       </c>
       <c r="T4">
-        <v>0.1663994807877787</v>
+        <v>0.006052036819597054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H5">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I5">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J5">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="N5">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="O5">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="P5">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="Q5">
-        <v>197.8687224536283</v>
+        <v>7.3068482178</v>
       </c>
       <c r="R5">
-        <v>197.8687224536283</v>
+        <v>65.7616339602</v>
       </c>
       <c r="S5">
-        <v>0.1008647395355998</v>
+        <v>0.003227016086934366</v>
       </c>
       <c r="T5">
-        <v>0.1008647395355998</v>
+        <v>0.003227016086934366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H6">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J6">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="N6">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="O6">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="P6">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="Q6">
-        <v>64.95052637032477</v>
+        <v>474.1804618409899</v>
       </c>
       <c r="R6">
-        <v>64.95052637032477</v>
+        <v>4267.624156568909</v>
       </c>
       <c r="S6">
-        <v>0.03310891101840629</v>
+        <v>0.2094183337137338</v>
       </c>
       <c r="T6">
-        <v>0.03310891101840629</v>
+        <v>0.2094183337137338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H7">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J7">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="N7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="O7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="P7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="Q7">
-        <v>110.1790101274426</v>
+        <v>790.619095421682</v>
       </c>
       <c r="R7">
-        <v>110.1790101274426</v>
+        <v>7115.571858795138</v>
       </c>
       <c r="S7">
-        <v>0.05616439536773755</v>
+        <v>0.3491711424014554</v>
       </c>
       <c r="T7">
-        <v>0.05616439536773755</v>
+        <v>0.3491711424014554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H8">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J8">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="N8">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="O8">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="P8">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="Q8">
-        <v>48.25088535847253</v>
+        <v>407.3323485085789</v>
       </c>
       <c r="R8">
-        <v>48.25088535847253</v>
+        <v>3665.99113657721</v>
       </c>
       <c r="S8">
-        <v>0.02459617125786508</v>
+        <v>0.1798953532610411</v>
       </c>
       <c r="T8">
-        <v>0.02459617125786508</v>
+        <v>0.1798953532610411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H9">
+        <v>12.831823</v>
+      </c>
+      <c r="I9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>50.778675</v>
+      </c>
+      <c r="N9">
+        <v>152.336025</v>
+      </c>
+      <c r="O9">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="P9">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="Q9">
+        <v>217.194323258175</v>
+      </c>
+      <c r="R9">
+        <v>1954.748909323575</v>
+      </c>
+      <c r="S9">
+        <v>0.09592228471881173</v>
+      </c>
+      <c r="T9">
+        <v>0.09592228471881174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.114861</v>
+      </c>
+      <c r="I10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>110.8604276666667</v>
+      </c>
+      <c r="N10">
+        <v>332.581283</v>
+      </c>
+      <c r="O10">
+        <v>0.2509786052589675</v>
+      </c>
+      <c r="P10">
+        <v>0.2509786052589675</v>
+      </c>
+      <c r="Q10">
+        <v>78.15146497185144</v>
+      </c>
+      <c r="R10">
+        <v>703.3631847466629</v>
+      </c>
+      <c r="S10">
+        <v>0.03451502305293338</v>
+      </c>
+      <c r="T10">
+        <v>0.03451502305293339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.6013279983086079</v>
-      </c>
-      <c r="H9">
-        <v>0.6013279983086079</v>
-      </c>
-      <c r="I9">
-        <v>0.128778697286717</v>
-      </c>
-      <c r="J9">
-        <v>0.128778697286717</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>48.6386223924831</v>
-      </c>
-      <c r="N9">
-        <v>48.6386223924831</v>
-      </c>
-      <c r="O9">
-        <v>0.1157739591783078</v>
-      </c>
-      <c r="P9">
-        <v>0.1157739591783078</v>
-      </c>
-      <c r="Q9">
-        <v>29.2477654437601</v>
-      </c>
-      <c r="R9">
-        <v>29.2477654437601</v>
-      </c>
-      <c r="S9">
-        <v>0.01490921964270802</v>
-      </c>
-      <c r="T9">
-        <v>0.01490921964270802</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.114861</v>
+      </c>
+      <c r="I11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>184.841802</v>
+      </c>
+      <c r="N11">
+        <v>554.525406</v>
+      </c>
+      <c r="O11">
+        <v>0.4184661617850055</v>
+      </c>
+      <c r="P11">
+        <v>0.4184661617850055</v>
+      </c>
+      <c r="Q11">
+        <v>130.304906073174</v>
+      </c>
+      <c r="R11">
+        <v>1172.744154658566</v>
+      </c>
+      <c r="S11">
+        <v>0.05754820896378357</v>
+      </c>
+      <c r="T11">
+        <v>0.05754820896378358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.114861</v>
+      </c>
+      <c r="I12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>95.23175666666667</v>
+      </c>
+      <c r="N12">
+        <v>285.69527</v>
+      </c>
+      <c r="O12">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="P12">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="Q12">
+        <v>67.13397604527444</v>
+      </c>
+      <c r="R12">
+        <v>604.20578440747</v>
+      </c>
+      <c r="S12">
+        <v>0.02964922962957006</v>
+      </c>
+      <c r="T12">
+        <v>0.02964922962957007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.114861</v>
+      </c>
+      <c r="I13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>50.778675</v>
+      </c>
+      <c r="N13">
+        <v>152.336025</v>
+      </c>
+      <c r="O13">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="P13">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="Q13">
+        <v>35.796613129725</v>
+      </c>
+      <c r="R13">
+        <v>322.169518167525</v>
+      </c>
+      <c r="S13">
+        <v>0.01580931244007269</v>
+      </c>
+      <c r="T13">
+        <v>0.0158093124400727</v>
       </c>
     </row>
   </sheetData>
